--- a/data/trans_orig/P71_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P71_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61DF55F6-1437-47E7-AA70-1E7EDB9F6B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{391B0D47-9F1A-472D-A25F-99EC0B694B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{647EA90B-D726-4F0A-8066-E5BDDE980F1F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5F2902A5-2409-4943-80C4-A2E84DDC8662}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>13,33%</t>
   </si>
   <si>
-    <t>10,6%</t>
+    <t>10,09%</t>
   </si>
   <si>
     <t>16,64%</t>
@@ -86,1495 +86,1495 @@
     <t>21,33%</t>
   </si>
   <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2012 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2016 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2023 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
     <t>17,71%</t>
   </si>
   <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>82,29%</t>
   </si>
   <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
   </si>
   <si>
     <t>14,19%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
   </si>
   <si>
     <t>85,81%</t>
   </si>
   <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2012 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2016 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2023 (Tasa respuesta: 98,92%)</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
     <t>85,27%</t>
   </si>
   <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
+    <t>86,27%</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +1986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB31C87-EB9E-424F-97DA-7ED70873C0C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443B2EED-7F9B-4C33-938B-A70EBF158B6A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2748,10 +2748,10 @@
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>200</v>
@@ -2760,13 +2760,13 @@
         <v>202645</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2781,13 @@
         <v>288437</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>278</v>
@@ -2796,13 +2796,13 @@
         <v>281971</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="M17" s="7">
         <v>571</v>
@@ -2811,13 +2811,13 @@
         <v>570408</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,7 +2873,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2885,13 +2885,13 @@
         <v>128991</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>266</v>
@@ -2900,13 +2900,13 @@
         <v>272212</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>405</v>
@@ -2915,13 +2915,13 @@
         <v>401203</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2936,13 @@
         <v>356813</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>379</v>
@@ -2951,13 +2951,13 @@
         <v>388900</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>746</v>
@@ -2966,13 +2966,13 @@
         <v>745713</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3040,13 @@
         <v>584141</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>885</v>
@@ -3055,13 +3055,13 @@
         <v>922333</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>1459</v>
@@ -3070,13 +3070,13 @@
         <v>1506475</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3091,13 @@
         <v>2646688</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>2349</v>
@@ -3106,7 +3106,7 @@
         <v>2392636</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>137</v>
@@ -3205,7 +3205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB25C92-A3DC-4A38-9919-477796F0D064}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC4DB00-2CFC-414A-8334-01E8AB1A5963}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3964,13 +3964,13 @@
         <v>129550</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>237</v>
@@ -3979,13 +3979,13 @@
         <v>257808</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4000,13 @@
         <v>296609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>281</v>
@@ -4015,13 +4015,13 @@
         <v>312867</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>553</v>
@@ -4030,13 +4030,13 @@
         <v>609476</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,7 +4092,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4104,13 +4104,13 @@
         <v>137533</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>201</v>
@@ -4119,13 +4119,13 @@
         <v>215634</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>324</v>
@@ -4137,10 +4137,10 @@
         <v>150</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4155,13 @@
         <v>416801</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H20" s="7">
         <v>490</v>
@@ -4170,13 +4170,13 @@
         <v>524187</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M20" s="7">
         <v>866</v>
@@ -4188,10 +4188,10 @@
         <v>159</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4259,13 @@
         <v>1043935</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>1031</v>
@@ -4274,13 +4274,13 @@
         <v>1119928</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>2009</v>
@@ -4289,13 +4289,13 @@
         <v>2163863</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4310,13 @@
         <v>2365210</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>2253</v>
@@ -4325,13 +4325,13 @@
         <v>2422794</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>4468</v>
@@ -4340,13 +4340,13 @@
         <v>4788004</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,7 +4424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2897DF99-6A65-4ACF-807F-C371E6BBC039}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6175FC-DB4D-4CF7-A34A-5692BE60E596}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4441,7 +4441,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4548,13 +4548,13 @@
         <v>121457</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H4" s="7">
         <v>114</v>
@@ -4563,13 +4563,13 @@
         <v>110461</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>227</v>
@@ -4578,13 +4578,13 @@
         <v>231918</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4599,13 @@
         <v>292424</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="H5" s="7">
         <v>287</v>
@@ -5198,13 +5198,13 @@
         <v>355245</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>206</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,13 +5219,13 @@
         <v>307675</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H17" s="7">
         <v>266</v>
@@ -5234,13 +5234,13 @@
         <v>306376</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>538</v>
@@ -5249,13 +5249,13 @@
         <v>614051</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,7 +5311,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5323,13 +5323,13 @@
         <v>166454</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H19" s="7">
         <v>221</v>
@@ -5338,13 +5338,13 @@
         <v>260377</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M19" s="7">
         <v>397</v>
@@ -5353,13 +5353,13 @@
         <v>426832</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,13 +5374,13 @@
         <v>413480</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>429</v>
@@ -5389,13 +5389,13 @@
         <v>511447</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
         <v>869</v>
@@ -5404,13 +5404,13 @@
         <v>924926</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5478,13 @@
         <v>1127997</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>1188</v>
@@ -5493,13 +5493,13 @@
         <v>1259561</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>2254</v>
@@ -5508,13 +5508,13 @@
         <v>2387558</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5529,13 @@
         <v>2239285</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>2134</v>
@@ -5544,28 +5544,28 @@
         <v>2267231</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>4273</v>
       </c>
       <c r="N23" s="7">
-        <v>4506516</v>
+        <v>4506517</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,7 +5607,7 @@
         <v>6527</v>
       </c>
       <c r="N24" s="7">
-        <v>6894074</v>
+        <v>6894075</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5643,7 +5643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259DC02A-D6B3-4E3D-8AD7-BC44003E8A88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1756448-62F1-45C0-AC07-4EF5996F8212}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5660,7 +5660,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5767,13 +5767,13 @@
         <v>52368</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -5782,13 +5782,13 @@
         <v>61815</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>65</v>
@@ -5797,13 +5797,13 @@
         <v>114183</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5818,13 @@
         <v>311507</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H5" s="7">
         <v>167</v>
@@ -5833,10 +5833,10 @@
         <v>290060</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>404</v>
@@ -5937,13 +5937,13 @@
         <v>90152</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>58</v>
+        <v>411</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>413</v>
       </c>
       <c r="M7" s="7">
         <v>119</v>
@@ -5952,13 +5952,13 @@
         <v>147790</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5973,13 @@
         <v>368206</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H8" s="7">
         <v>377</v>
@@ -5988,13 +5988,13 @@
         <v>400321</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>68</v>
+        <v>420</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>421</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M8" s="7">
         <v>633</v>
@@ -6003,13 +6003,13 @@
         <v>768526</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6077,13 @@
         <v>76591</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>125</v>
@@ -6092,13 +6092,13 @@
         <v>85074</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M10" s="7">
         <v>212</v>
@@ -6107,13 +6107,13 @@
         <v>161665</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6128,13 @@
         <v>479009</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H11" s="7">
         <v>719</v>
@@ -6143,13 +6143,13 @@
         <v>523163</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M11" s="7">
         <v>1174</v>
@@ -6158,13 +6158,13 @@
         <v>1002172</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6232,13 @@
         <v>87403</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H13" s="7">
         <v>166</v>
@@ -6247,13 +6247,13 @@
         <v>108321</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M13" s="7">
         <v>256</v>
@@ -6262,13 +6262,13 @@
         <v>195724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6283,13 @@
         <v>628079</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="H14" s="7">
         <v>970</v>
@@ -6298,13 +6298,13 @@
         <v>625551</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>1538</v>
@@ -6313,13 +6313,13 @@
         <v>1253630</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6387,13 @@
         <v>102641</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>191</v>
@@ -6402,13 +6402,13 @@
         <v>118751</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>463</v>
+        <v>130</v>
       </c>
       <c r="M16" s="7">
         <v>304</v>
@@ -6417,13 +6417,13 @@
         <v>221392</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6438,13 @@
         <v>487783</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H17" s="7">
         <v>800</v>
@@ -6453,13 +6453,13 @@
         <v>469564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>471</v>
+        <v>139</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M17" s="7">
         <v>1340</v>
@@ -6468,13 +6468,13 @@
         <v>957348</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,7 +6530,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6542,13 +6542,13 @@
         <v>65903</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H19" s="7">
         <v>266</v>
@@ -6557,13 +6557,13 @@
         <v>143952</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M19" s="7">
         <v>360</v>
@@ -6572,13 +6572,13 @@
         <v>209855</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6593,13 @@
         <v>626519</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H20" s="7">
         <v>1414</v>
@@ -6608,13 +6608,13 @@
         <v>870078</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M20" s="7">
         <v>2341</v>
@@ -6623,13 +6623,13 @@
         <v>1496597</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6697,13 @@
         <v>442544</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H22" s="7">
         <v>861</v>
@@ -6712,13 +6712,13 @@
         <v>608065</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M22" s="7">
         <v>1316</v>
@@ -6727,13 +6727,13 @@
         <v>1050609</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>502</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6748,13 @@
         <v>2901102</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H23" s="7">
         <v>4447</v>
@@ -6763,25 +6763,25 @@
         <v>3178738</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M23" s="7">
         <v>7333</v>
       </c>
       <c r="N23" s="7">
-        <v>6079839</v>
+        <v>6079840</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>510</v>
+        <v>442</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>511</v>
@@ -6826,7 +6826,7 @@
         <v>8649</v>
       </c>
       <c r="N24" s="7">
-        <v>7130448</v>
+        <v>7130449</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P71_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P71_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{391B0D47-9F1A-472D-A25F-99EC0B694B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30B02244-F8F6-41E3-9856-EE6C071601BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5F2902A5-2409-4943-80C4-A2E84DDC8662}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{28910B6B-2CB3-41DA-BA6D-BFC785DBB7B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="581">
   <si>
     <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2007 (Tasa respuesta: 98,33%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>17,11%</t>
@@ -191,7 +191,7 @@
     <t>83,2%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>14,95%</t>
@@ -248,7 +248,7 @@
     <t>81,71%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>16,0%</t>
@@ -305,7 +305,7 @@
     <t>81,54%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>23,32%</t>
@@ -356,522 +356,639 @@
     <t>76,97%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2012 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
   </si>
   <si>
     <t>26,55%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
   </si>
   <si>
     <t>73,45%</t>
   </si>
   <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2012 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2016 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>29,35%</t>
   </si>
   <si>
     <t>24,7%</t>
   </si>
   <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
   </si>
   <si>
     <t>75,3%</t>
   </si>
   <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2016 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
     <t>71,89%</t>
   </si>
   <si>
@@ -944,9 +1061,6 @@
     <t>69,04%</t>
   </si>
   <si>
-    <t>32,62%</t>
-  </si>
-  <si>
     <t>29,05%</t>
   </si>
   <si>
@@ -956,9 +1070,6 @@
     <t>37,07%</t>
   </si>
   <si>
-    <t>33,45%</t>
-  </si>
-  <si>
     <t>41,04%</t>
   </si>
   <si>
@@ -971,9 +1082,6 @@
     <t>37,46%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
     <t>63,76%</t>
   </si>
   <si>
@@ -986,9 +1094,6 @@
     <t>58,96%</t>
   </si>
   <si>
-    <t>66,55%</t>
-  </si>
-  <si>
     <t>65,17%</t>
   </si>
   <si>
@@ -1106,58 +1211,112 @@
     <t>66,67%</t>
   </si>
   <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
   </si>
   <si>
     <t>33,5%</t>
@@ -1169,12 +1328,6 @@
     <t>35,09%</t>
   </si>
   <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
     <t>37,42%</t>
   </si>
   <si>
@@ -1196,15 +1349,9 @@
     <t>68,16%</t>
   </si>
   <si>
-    <t>64,29%</t>
-  </si>
-  <si>
     <t>62,58%</t>
   </si>
   <si>
-    <t>65,92%</t>
-  </si>
-  <si>
     <t>65,37%</t>
   </si>
   <si>
@@ -1217,364 +1364,424 @@
     <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2023 (Tasa respuesta: 98,92%)</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
   </si>
   <si>
     <t>18,58%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
   </si>
   <si>
     <t>81,42%</t>
   </si>
   <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
   </si>
   <si>
     <t>16,87%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
   </si>
   <si>
     <t>83,13%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
 </sst>
 </file>
@@ -1986,8 +2193,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443B2EED-7F9B-4C33-938B-A70EBF158B6A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F9208D-38C9-4EA6-8B8C-1886031D3A83}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2879,10 +3086,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="D19" s="7">
-        <v>128991</v>
+        <v>65703</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2894,10 +3101,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>266</v>
+        <v>147</v>
       </c>
       <c r="I19" s="7">
-        <v>272212</v>
+        <v>134875</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2909,10 +3116,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>405</v>
+        <v>218</v>
       </c>
       <c r="N19" s="7">
-        <v>401203</v>
+        <v>200578</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2930,10 +3137,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>367</v>
+        <v>221</v>
       </c>
       <c r="D20" s="7">
-        <v>356813</v>
+        <v>217059</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2945,10 +3152,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>379</v>
+        <v>212</v>
       </c>
       <c r="I20" s="7">
-        <v>388900</v>
+        <v>197231</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2960,10 +3167,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>746</v>
+        <v>433</v>
       </c>
       <c r="N20" s="7">
-        <v>745713</v>
+        <v>414290</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2981,10 +3188,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>506</v>
+        <v>292</v>
       </c>
       <c r="D21" s="7">
-        <v>485804</v>
+        <v>282762</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2996,10 +3203,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>645</v>
+        <v>359</v>
       </c>
       <c r="I21" s="7">
-        <v>661112</v>
+        <v>332106</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3011,10 +3218,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1151</v>
+        <v>651</v>
       </c>
       <c r="N21" s="7">
-        <v>1146916</v>
+        <v>614868</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3028,55 +3235,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>574</v>
+        <v>68</v>
       </c>
       <c r="D22" s="7">
-        <v>584141</v>
+        <v>63287</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>885</v>
+        <v>119</v>
       </c>
       <c r="I22" s="7">
-        <v>922333</v>
+        <v>137337</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>1459</v>
+        <v>187</v>
       </c>
       <c r="N22" s="7">
-        <v>1506475</v>
+        <v>200625</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,49 +3292,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2594</v>
+        <v>146</v>
       </c>
       <c r="D23" s="7">
-        <v>2646688</v>
+        <v>139755</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>2349</v>
+        <v>167</v>
       </c>
       <c r="I23" s="7">
-        <v>2392636</v>
+        <v>191668</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>4943</v>
+        <v>313</v>
       </c>
       <c r="N23" s="7">
-        <v>5039323</v>
+        <v>331423</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,63 +3343,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>214</v>
+      </c>
+      <c r="D24" s="7">
+        <v>203042</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>286</v>
+      </c>
+      <c r="I24" s="7">
+        <v>329005</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>500</v>
+      </c>
+      <c r="N24" s="7">
+        <v>532048</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>574</v>
+      </c>
+      <c r="D25" s="7">
+        <v>584141</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>885</v>
+      </c>
+      <c r="I25" s="7">
+        <v>922333</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1459</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1506475</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2594</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2646688</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2349</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2392636</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4943</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5039323</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3168</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3230829</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3234</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3314969</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6402</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6545798</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3205,8 +3568,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC4DB00-2CFC-414A-8334-01E8AB1A5963}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814832D0-791F-4E6A-82ED-AAD76B389F67}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3222,7 +3585,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3329,13 +3692,13 @@
         <v>129964</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>106</v>
@@ -3344,13 +3707,13 @@
         <v>110343</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>233</v>
@@ -3359,13 +3722,13 @@
         <v>240307</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3743,13 @@
         <v>321289</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>314</v>
@@ -3395,13 +3758,13 @@
         <v>318957</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>630</v>
@@ -3410,13 +3773,13 @@
         <v>640246</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3847,13 @@
         <v>204162</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>190</v>
@@ -3499,13 +3862,13 @@
         <v>205798</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>390</v>
@@ -3514,13 +3877,13 @@
         <v>409960</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3898,13 @@
         <v>481031</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>381</v>
@@ -3550,13 +3913,13 @@
         <v>404457</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>846</v>
@@ -3565,13 +3928,13 @@
         <v>885489</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +4002,13 @@
         <v>237662</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>233</v>
@@ -3654,13 +4017,13 @@
         <v>250796</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>461</v>
@@ -3669,13 +4032,13 @@
         <v>488457</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +4053,13 @@
         <v>441220</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>431</v>
@@ -3705,13 +4068,13 @@
         <v>456233</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>852</v>
@@ -3720,13 +4083,13 @@
         <v>897453</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,28 +4157,28 @@
         <v>206356</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>181</v>
       </c>
       <c r="I13" s="7">
-        <v>207808</v>
+        <v>207807</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>364</v>
@@ -3824,13 +4187,13 @@
         <v>414164</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +4208,13 @@
         <v>408261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>356</v>
@@ -3860,13 +4223,13 @@
         <v>406092</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>721</v>
@@ -3875,13 +4238,13 @@
         <v>814352</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,7 +4271,7 @@
         <v>537</v>
       </c>
       <c r="I15" s="7">
-        <v>613900</v>
+        <v>613899</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3949,13 +4312,13 @@
         <v>128258</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
@@ -3964,13 +4327,13 @@
         <v>129550</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>237</v>
@@ -3979,13 +4342,13 @@
         <v>257808</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4363,13 @@
         <v>296609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>281</v>
@@ -4015,13 +4378,13 @@
         <v>312867</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>553</v>
@@ -4030,13 +4393,13 @@
         <v>609476</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,49 +4461,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="D19" s="7">
-        <v>137533</v>
+        <v>69564</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="I19" s="7">
-        <v>215634</v>
+        <v>94907</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="M19" s="7">
-        <v>324</v>
+        <v>158</v>
       </c>
       <c r="N19" s="7">
-        <v>353167</v>
+        <v>164472</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,49 +4512,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>376</v>
+        <v>214</v>
       </c>
       <c r="D20" s="7">
-        <v>416801</v>
+        <v>235981</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
-        <v>490</v>
+        <v>249</v>
       </c>
       <c r="I20" s="7">
-        <v>524187</v>
+        <v>258100</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
-        <v>866</v>
+        <v>463</v>
       </c>
       <c r="N20" s="7">
-        <v>940988</v>
+        <v>494080</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,10 +4563,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>499</v>
+        <v>278</v>
       </c>
       <c r="D21" s="7">
-        <v>554334</v>
+        <v>305545</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4215,10 +4578,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>691</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>739821</v>
+        <v>353007</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4230,10 +4593,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1190</v>
+        <v>621</v>
       </c>
       <c r="N21" s="7">
-        <v>1294155</v>
+        <v>658552</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4247,55 +4610,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>978</v>
+        <v>59</v>
       </c>
       <c r="D22" s="7">
-        <v>1043935</v>
+        <v>67969</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
-        <v>1031</v>
+        <v>107</v>
       </c>
       <c r="I22" s="7">
-        <v>1119928</v>
+        <v>120726</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="M22" s="7">
-        <v>2009</v>
+        <v>166</v>
       </c>
       <c r="N22" s="7">
-        <v>2163863</v>
+        <v>188695</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,49 +4667,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2215</v>
+        <v>162</v>
       </c>
       <c r="D23" s="7">
-        <v>2365210</v>
+        <v>180820</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="H23" s="7">
-        <v>2253</v>
+        <v>241</v>
       </c>
       <c r="I23" s="7">
-        <v>2422794</v>
+        <v>266088</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
-        <v>4468</v>
+        <v>403</v>
       </c>
       <c r="N23" s="7">
-        <v>4788004</v>
+        <v>446908</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,63 +4718,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>248789</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>348</v>
+      </c>
+      <c r="I24" s="7">
+        <v>386814</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>569</v>
+      </c>
+      <c r="N24" s="7">
+        <v>635603</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>978</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1043935</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1031</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1119928</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2009</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2163863</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2215</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2365210</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2253</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2422794</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4468</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4788004</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3193</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3409145</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3284</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3542722</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6477</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6951867</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4424,8 +4943,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6175FC-DB4D-4CF7-A34A-5692BE60E596}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C569700C-19D3-459C-B333-AFC8DE8D2B3F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4441,7 +4960,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4548,13 +5067,13 @@
         <v>121457</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>114</v>
@@ -4563,13 +5082,13 @@
         <v>110461</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>227</v>
@@ -4578,13 +5097,13 @@
         <v>231918</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +5118,13 @@
         <v>292424</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>247</v>
+        <v>315</v>
       </c>
       <c r="H5" s="7">
         <v>287</v>
@@ -4614,13 +5133,13 @@
         <v>282514</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>562</v>
@@ -4629,13 +5148,13 @@
         <v>574938</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +5222,13 @@
         <v>206092</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>187</v>
@@ -4718,13 +5237,13 @@
         <v>181194</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>383</v>
@@ -4733,13 +5252,13 @@
         <v>387286</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +5273,13 @@
         <v>384404</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="H8" s="7">
         <v>390</v>
@@ -4769,13 +5288,13 @@
         <v>380361</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>761</v>
@@ -4784,13 +5303,13 @@
         <v>764766</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +5377,13 @@
         <v>217274</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>112</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>249</v>
@@ -4873,28 +5392,28 @@
         <v>243858</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>453</v>
       </c>
       <c r="N10" s="7">
-        <v>461132</v>
+        <v>461133</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +5428,13 @@
         <v>448870</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="H11" s="7">
         <v>413</v>
@@ -4924,13 +5443,13 @@
         <v>414035</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>844</v>
@@ -4939,13 +5458,13 @@
         <v>862904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,7 +5506,7 @@
         <v>1297</v>
       </c>
       <c r="N12" s="7">
-        <v>1324036</v>
+        <v>1324037</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5013,13 +5532,13 @@
         <v>249652</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="H13" s="7">
         <v>252</v>
@@ -5028,13 +5547,13 @@
         <v>275494</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="M13" s="7">
         <v>480</v>
@@ -5043,13 +5562,13 @@
         <v>525146</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5583,13 @@
         <v>392432</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>349</v>
@@ -5079,13 +5598,13 @@
         <v>372498</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>699</v>
@@ -5094,13 +5613,13 @@
         <v>764930</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5687,13 @@
         <v>167068</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>165</v>
@@ -5183,13 +5702,13 @@
         <v>188177</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>314</v>
@@ -5198,13 +5717,13 @@
         <v>355245</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,13 +5738,13 @@
         <v>307675</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>266</v>
@@ -5234,13 +5753,13 @@
         <v>306376</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>538</v>
@@ -5249,13 +5768,13 @@
         <v>614051</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,49 +5836,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="D19" s="7">
-        <v>166454</v>
+        <v>94721</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="I19" s="7">
-        <v>260377</v>
+        <v>118357</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
+        <v>204</v>
+      </c>
+      <c r="N19" s="7">
+        <v>213078</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="N19" s="7">
-        <v>426832</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>362</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,49 +5887,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>440</v>
+        <v>225</v>
       </c>
       <c r="D20" s="7">
-        <v>413480</v>
+        <v>230750</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
-        <v>429</v>
+        <v>239</v>
       </c>
       <c r="I20" s="7">
-        <v>511447</v>
+        <v>255771</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
-        <v>869</v>
+        <v>464</v>
       </c>
       <c r="N20" s="7">
-        <v>924926</v>
+        <v>486521</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,10 +5938,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>616</v>
+        <v>317</v>
       </c>
       <c r="D21" s="7">
-        <v>579934</v>
+        <v>325471</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5434,10 +5953,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>650</v>
+        <v>351</v>
       </c>
       <c r="I21" s="7">
-        <v>771824</v>
+        <v>374128</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5449,10 +5968,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1266</v>
+        <v>668</v>
       </c>
       <c r="N21" s="7">
-        <v>1351758</v>
+        <v>699599</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5466,55 +5985,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1066</v>
+        <v>84</v>
       </c>
       <c r="D22" s="7">
-        <v>1127997</v>
+        <v>71733</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
-        <v>1188</v>
+        <v>109</v>
       </c>
       <c r="I22" s="7">
-        <v>1259561</v>
+        <v>142020</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
-        <v>2254</v>
+        <v>193</v>
       </c>
       <c r="N22" s="7">
-        <v>2387558</v>
+        <v>213753</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,49 +6042,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2139</v>
+        <v>215</v>
       </c>
       <c r="D23" s="7">
-        <v>2239285</v>
+        <v>182730</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7">
-        <v>2134</v>
+        <v>190</v>
       </c>
       <c r="I23" s="7">
-        <v>2267231</v>
+        <v>255676</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="M23" s="7">
-        <v>4273</v>
+        <v>405</v>
       </c>
       <c r="N23" s="7">
-        <v>4506517</v>
+        <v>438406</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,63 +6093,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>299</v>
+      </c>
+      <c r="D24" s="7">
+        <v>254463</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>299</v>
+      </c>
+      <c r="I24" s="7">
+        <v>397696</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>598</v>
+      </c>
+      <c r="N24" s="7">
+        <v>652159</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1066</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1127997</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1188</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1259561</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2254</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2387558</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2139</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2239285</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2134</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2267231</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4273</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4506517</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3205</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3367282</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3322</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3526792</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6527</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6894075</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5643,8 +6318,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1756448-62F1-45C0-AC07-4EF5996F8212}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1743919-00C5-4712-ACC3-0E561C447641}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5660,7 +6335,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5764,46 +6439,46 @@
         <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>52368</v>
+        <v>49978</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
       </c>
       <c r="I4" s="7">
-        <v>61815</v>
+        <v>57810</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>446</v>
       </c>
       <c r="M4" s="7">
         <v>65</v>
       </c>
       <c r="N4" s="7">
-        <v>114183</v>
+        <v>107788</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,46 +6490,46 @@
         <v>140</v>
       </c>
       <c r="D5" s="7">
-        <v>311507</v>
+        <v>332314</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="H5" s="7">
         <v>167</v>
       </c>
       <c r="I5" s="7">
-        <v>290060</v>
+        <v>252491</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>454</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="M5" s="7">
         <v>307</v>
       </c>
       <c r="N5" s="7">
-        <v>601567</v>
+        <v>584806</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,7 +6541,7 @@
         <v>167</v>
       </c>
       <c r="D6" s="7">
-        <v>363875</v>
+        <v>382292</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5881,7 +6556,7 @@
         <v>205</v>
       </c>
       <c r="I6" s="7">
-        <v>351875</v>
+        <v>310301</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5896,7 +6571,7 @@
         <v>372</v>
       </c>
       <c r="N6" s="7">
-        <v>715750</v>
+        <v>692594</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5919,46 +6594,46 @@
         <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>57638</v>
+        <v>55441</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="H7" s="7">
         <v>75</v>
       </c>
       <c r="I7" s="7">
-        <v>90152</v>
+        <v>136342</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="M7" s="7">
         <v>119</v>
       </c>
       <c r="N7" s="7">
-        <v>147790</v>
+        <v>191783</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,46 +6645,46 @@
         <v>256</v>
       </c>
       <c r="D8" s="7">
-        <v>368206</v>
+        <v>365617</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="H8" s="7">
         <v>377</v>
       </c>
       <c r="I8" s="7">
-        <v>400321</v>
+        <v>367856</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="M8" s="7">
         <v>633</v>
       </c>
       <c r="N8" s="7">
-        <v>768526</v>
+        <v>733473</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,7 +6696,7 @@
         <v>300</v>
       </c>
       <c r="D9" s="7">
-        <v>425844</v>
+        <v>421058</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6036,7 +6711,7 @@
         <v>452</v>
       </c>
       <c r="I9" s="7">
-        <v>490473</v>
+        <v>504198</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6051,7 +6726,7 @@
         <v>752</v>
       </c>
       <c r="N9" s="7">
-        <v>916316</v>
+        <v>925256</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6074,46 +6749,46 @@
         <v>87</v>
       </c>
       <c r="D10" s="7">
-        <v>76591</v>
+        <v>72824</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="H10" s="7">
         <v>125</v>
       </c>
       <c r="I10" s="7">
-        <v>85074</v>
+        <v>78666</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="M10" s="7">
         <v>212</v>
       </c>
       <c r="N10" s="7">
-        <v>161665</v>
+        <v>151490</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,46 +6800,46 @@
         <v>455</v>
       </c>
       <c r="D11" s="7">
-        <v>479009</v>
+        <v>461995</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="H11" s="7">
         <v>719</v>
       </c>
       <c r="I11" s="7">
-        <v>523163</v>
+        <v>511214</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="M11" s="7">
         <v>1174</v>
       </c>
       <c r="N11" s="7">
-        <v>1002172</v>
+        <v>973210</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,7 +6851,7 @@
         <v>542</v>
       </c>
       <c r="D12" s="7">
-        <v>555600</v>
+        <v>534819</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6191,7 +6866,7 @@
         <v>844</v>
       </c>
       <c r="I12" s="7">
-        <v>608237</v>
+        <v>589880</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6206,7 +6881,7 @@
         <v>1386</v>
       </c>
       <c r="N12" s="7">
-        <v>1163837</v>
+        <v>1124700</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6229,46 +6904,46 @@
         <v>90</v>
       </c>
       <c r="D13" s="7">
-        <v>87403</v>
+        <v>80593</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="H13" s="7">
         <v>166</v>
       </c>
       <c r="I13" s="7">
-        <v>108321</v>
+        <v>97776</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="M13" s="7">
         <v>256</v>
       </c>
       <c r="N13" s="7">
-        <v>195724</v>
+        <v>178369</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>452</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,46 +6955,46 @@
         <v>568</v>
       </c>
       <c r="D14" s="7">
-        <v>628079</v>
+        <v>799014</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="H14" s="7">
         <v>970</v>
       </c>
       <c r="I14" s="7">
-        <v>625551</v>
+        <v>579025</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="M14" s="7">
         <v>1538</v>
       </c>
       <c r="N14" s="7">
-        <v>1253630</v>
+        <v>1378039</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>43</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,7 +7006,7 @@
         <v>658</v>
       </c>
       <c r="D15" s="7">
-        <v>715482</v>
+        <v>879607</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6346,7 +7021,7 @@
         <v>1136</v>
       </c>
       <c r="I15" s="7">
-        <v>733872</v>
+        <v>676801</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6361,7 +7036,7 @@
         <v>1794</v>
       </c>
       <c r="N15" s="7">
-        <v>1449354</v>
+        <v>1556408</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6384,46 +7059,46 @@
         <v>113</v>
       </c>
       <c r="D16" s="7">
-        <v>102641</v>
+        <v>95138</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="H16" s="7">
         <v>191</v>
       </c>
       <c r="I16" s="7">
-        <v>118751</v>
+        <v>107772</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>130</v>
+        <v>516</v>
       </c>
       <c r="M16" s="7">
         <v>304</v>
       </c>
       <c r="N16" s="7">
-        <v>221392</v>
+        <v>202910</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>469</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,46 +7110,46 @@
         <v>540</v>
       </c>
       <c r="D17" s="7">
-        <v>487783</v>
+        <v>457078</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>471</v>
+        <v>521</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>472</v>
+        <v>522</v>
       </c>
       <c r="H17" s="7">
         <v>800</v>
       </c>
       <c r="I17" s="7">
-        <v>469564</v>
+        <v>432330</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>139</v>
+        <v>524</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="M17" s="7">
         <v>1340</v>
       </c>
       <c r="N17" s="7">
-        <v>957348</v>
+        <v>889409</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,7 +7161,7 @@
         <v>653</v>
       </c>
       <c r="D18" s="7">
-        <v>590424</v>
+        <v>552216</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6501,7 +7176,7 @@
         <v>991</v>
       </c>
       <c r="I18" s="7">
-        <v>588315</v>
+        <v>540102</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6516,7 +7191,7 @@
         <v>1644</v>
       </c>
       <c r="N18" s="7">
-        <v>1178740</v>
+        <v>1092319</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6536,49 +7211,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="D19" s="7">
-        <v>65903</v>
+        <v>35789</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="H19" s="7">
-        <v>266</v>
+        <v>99</v>
       </c>
       <c r="I19" s="7">
-        <v>143952</v>
+        <v>48398</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>482</v>
+        <v>533</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>483</v>
+        <v>534</v>
       </c>
       <c r="M19" s="7">
-        <v>360</v>
+        <v>155</v>
       </c>
       <c r="N19" s="7">
-        <v>209855</v>
+        <v>84187</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,49 +7262,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>927</v>
+        <v>510</v>
       </c>
       <c r="D20" s="7">
-        <v>626519</v>
+        <v>329400</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>488</v>
+        <v>539</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>489</v>
+        <v>540</v>
       </c>
       <c r="H20" s="7">
-        <v>1414</v>
+        <v>719</v>
       </c>
       <c r="I20" s="7">
-        <v>870078</v>
+        <v>556306</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>490</v>
+        <v>541</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>491</v>
+        <v>542</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>492</v>
+        <v>543</v>
       </c>
       <c r="M20" s="7">
-        <v>2341</v>
+        <v>1229</v>
       </c>
       <c r="N20" s="7">
-        <v>1496597</v>
+        <v>885706</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>544</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,10 +7313,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1021</v>
+        <v>566</v>
       </c>
       <c r="D21" s="7">
-        <v>692422</v>
+        <v>365189</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6653,10 +7328,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1680</v>
+        <v>818</v>
       </c>
       <c r="I21" s="7">
-        <v>1014030</v>
+        <v>604704</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6668,10 +7343,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2701</v>
+        <v>1384</v>
       </c>
       <c r="N21" s="7">
-        <v>1706452</v>
+        <v>969893</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6685,55 +7360,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>455</v>
+        <v>38</v>
       </c>
       <c r="D22" s="7">
-        <v>442544</v>
+        <v>24635</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>496</v>
+        <v>547</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>497</v>
+        <v>548</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>498</v>
+        <v>549</v>
       </c>
       <c r="H22" s="7">
-        <v>861</v>
+        <v>167</v>
       </c>
       <c r="I22" s="7">
-        <v>608065</v>
+        <v>80804</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>499</v>
+        <v>550</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>500</v>
+        <v>551</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>501</v>
+        <v>552</v>
       </c>
       <c r="M22" s="7">
-        <v>1316</v>
+        <v>205</v>
       </c>
       <c r="N22" s="7">
-        <v>1050609</v>
+        <v>105439</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>502</v>
+        <v>553</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>503</v>
+        <v>554</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,49 +7417,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2886</v>
+        <v>417</v>
       </c>
       <c r="D23" s="7">
-        <v>2901102</v>
+        <v>256086</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>504</v>
+        <v>556</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>505</v>
+        <v>557</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>506</v>
+        <v>558</v>
       </c>
       <c r="H23" s="7">
-        <v>4447</v>
+        <v>695</v>
       </c>
       <c r="I23" s="7">
-        <v>3178738</v>
+        <v>336931</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>507</v>
+        <v>559</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>508</v>
+        <v>560</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>509</v>
+        <v>561</v>
       </c>
       <c r="M23" s="7">
-        <v>7333</v>
+        <v>1112</v>
       </c>
       <c r="N23" s="7">
-        <v>6079840</v>
+        <v>593017</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>510</v>
+        <v>562</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>442</v>
+        <v>563</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>511</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,63 +7468,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>455</v>
+      </c>
+      <c r="D24" s="7">
+        <v>280721</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>862</v>
+      </c>
+      <c r="I24" s="7">
+        <v>417735</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1317</v>
+      </c>
+      <c r="N24" s="7">
+        <v>698456</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>455</v>
+      </c>
+      <c r="D25" s="7">
+        <v>414398</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="H25" s="7">
+        <v>861</v>
+      </c>
+      <c r="I25" s="7">
+        <v>607568</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1316</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1021966</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2886</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3001505</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4447</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3036154</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7333</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6037659</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3341</v>
       </c>
-      <c r="D24" s="7">
-        <v>3343646</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3415903</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5308</v>
       </c>
-      <c r="I24" s="7">
-        <v>3786803</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3643722</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8649</v>
       </c>
-      <c r="N24" s="7">
-        <v>7130449</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7059625</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
